--- a/biology/Écologie/Environnement_biophysique/Environnement_biophysique.xlsx
+++ b/biology/Écologie/Environnement_biophysique/Environnement_biophysique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’environnement biophysique, appelé aussi milieu biophysique ou milieu de vie, désigne le milieu biotique (interactions dans les biocénoses) et abiotique (topographie, caractéristiques du sol, climat, qualité de l'eau, etc.) d'un individu, d'une espèce ou d'une population d'espèces, et comprend par conséquent les facteurs qui ont une influence sur leur survie, leur développement et leur évolution[1].
-Ce concept en écologie est plus large que celui d'habitat d'espèce[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’environnement biophysique, appelé aussi milieu biophysique ou milieu de vie, désigne le milieu biotique (interactions dans les biocénoses) et abiotique (topographie, caractéristiques du sol, climat, qualité de l'eau, etc.) d'un individu, d'une espèce ou d'une population d'espèces, et comprend par conséquent les facteurs qui ont une influence sur leur survie, leur développement et leur évolution.
+Ce concept en écologie est plus large que celui d'habitat d'espèce.
 </t>
         </is>
       </c>
